--- a/meta/en/12-b-1.xlsx
+++ b/meta/en/12-b-1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="Workbook________" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="Лист 1" sheetId="2" r:id="rId1"/>
@@ -100,9 +100,6 @@
     <t xml:space="preserve">12.b Develop and implement tools to monitor sustainable development impacts for sustainable tourism that creates jobs and promotes local culture and products </t>
   </si>
   <si>
-    <t xml:space="preserve">12.b.1 Number of sustainable tourism strategies or policies and implemented action plans with agreed monitoring and evaluation tools </t>
-  </si>
-  <si>
     <t>Department of Tourism under the Ministry of Culture, Information and Tourism of the Kyrgyz Republic</t>
   </si>
   <si>
@@ -160,6 +157,9 @@
 2. Acts of the KR Jogorku Kenesh (Parliament), the Kyrgyz President and The Government Decrees 
 3. Local acts of the Ministry and Department of Tourism under the MCIT KR;
 4. The Kyrgyz Government Decree on Approval of the Kyrgyz Government’s Tourism Development Program for 2019-2023 No. 36 of January 31, 2019.</t>
+  </si>
+  <si>
+    <t>12.b.1 Implementation of standard accounting tools to monitor the economic and environmental aspects of tourism sustainability</t>
   </si>
 </sst>
 </file>
@@ -581,7 +581,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -618,7 +618,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -632,7 +632,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -640,7 +640,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -648,7 +648,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -656,7 +656,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -664,7 +664,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -678,7 +678,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="201.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -686,7 +686,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="408.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -694,7 +694,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -708,7 +708,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -716,7 +716,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -730,7 +730,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -738,7 +738,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -746,7 +746,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -760,7 +760,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -780,7 +780,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
